--- a/Study Results.xlsx
+++ b/Study Results.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\CS\2296038-final-year-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA53E1-3393-461B-9021-F2C1D21905ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Processed Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Key" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,10 +26,356 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Demographic1</t>
+  </si>
+  <si>
+    <t>Demographic2</t>
+  </si>
+  <si>
+    <t>Demographic3</t>
+  </si>
+  <si>
+    <t>Demographic4</t>
+  </si>
+  <si>
+    <t>Bfi1</t>
+  </si>
+  <si>
+    <t>Bfi2</t>
+  </si>
+  <si>
+    <t>Bfi3</t>
+  </si>
+  <si>
+    <t>Bfi4</t>
+  </si>
+  <si>
+    <t>Bfi5</t>
+  </si>
+  <si>
+    <t>Bfi6</t>
+  </si>
+  <si>
+    <t>Bfi7</t>
+  </si>
+  <si>
+    <t>Bfi8</t>
+  </si>
+  <si>
+    <t>Bfi9</t>
+  </si>
+  <si>
+    <t>Bfi10</t>
+  </si>
+  <si>
+    <t>Bfi11</t>
+  </si>
+  <si>
+    <t>Bfi12</t>
+  </si>
+  <si>
+    <t>Bfi13</t>
+  </si>
+  <si>
+    <t>Bfi14</t>
+  </si>
+  <si>
+    <t>Bfi15</t>
+  </si>
+  <si>
+    <t>Gaais1</t>
+  </si>
+  <si>
+    <t>Gaais2</t>
+  </si>
+  <si>
+    <t>Gaais3</t>
+  </si>
+  <si>
+    <t>Gaais4</t>
+  </si>
+  <si>
+    <t>Gaais5</t>
+  </si>
+  <si>
+    <t>Gaais6</t>
+  </si>
+  <si>
+    <t>Gaais7</t>
+  </si>
+  <si>
+    <t>Gaais8</t>
+  </si>
+  <si>
+    <t>Bot1chatbot</t>
+  </si>
+  <si>
+    <t>Bot1messages</t>
+  </si>
+  <si>
+    <t>Bot1q1</t>
+  </si>
+  <si>
+    <t>Bot1q2</t>
+  </si>
+  <si>
+    <t>Bot1q3</t>
+  </si>
+  <si>
+    <t>Bot1q4</t>
+  </si>
+  <si>
+    <t>Bot2chatbot</t>
+  </si>
+  <si>
+    <t>Bot2messages</t>
+  </si>
+  <si>
+    <t>Bot2q1</t>
+  </si>
+  <si>
+    <t>Bot2q2</t>
+  </si>
+  <si>
+    <t>Bot2q3</t>
+  </si>
+  <si>
+    <t>Bot2q4</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>21 and Under</t>
+  </si>
+  <si>
+    <t>Eduction</t>
+  </si>
+  <si>
+    <t>Computer Expertise</t>
+  </si>
+  <si>
+    <t>Skilled</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Negative Emotionality</t>
+  </si>
+  <si>
+    <t>Open-Mindedness</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Demographic 1</t>
+  </si>
+  <si>
+    <t>Demographic 2</t>
+  </si>
+  <si>
+    <t>Demographic 3</t>
+  </si>
+  <si>
+    <t>Demographic 4</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>22 to 34</t>
+  </si>
+  <si>
+    <t>35 to 44</t>
+  </si>
+  <si>
+    <t>45 to 54</t>
+  </si>
+  <si>
+    <t>55 to 64</t>
+  </si>
+  <si>
+    <t>65 and Over</t>
+  </si>
+  <si>
+    <t>No formal education</t>
+  </si>
+  <si>
+    <t>GCSE</t>
+  </si>
+  <si>
+    <t>A-level</t>
+  </si>
+  <si>
+    <t>Bachelors degree</t>
+  </si>
+  <si>
+    <t>Masters degree</t>
+  </si>
+  <si>
+    <t>Doctoral degree</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Competent</t>
+  </si>
+  <si>
+    <t>Mastery</t>
+  </si>
+  <si>
+    <t>BFI</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disagree strongly </t>
+  </si>
+  <si>
+    <t>Disagree a little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral; no opinion </t>
+  </si>
+  <si>
+    <t>Agree a little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agree strongly </t>
+  </si>
+  <si>
+    <t>1R, 6, 11</t>
+  </si>
+  <si>
+    <t>2, 7R, 12</t>
+  </si>
+  <si>
+    <t>3R, 8R, 13</t>
+  </si>
+  <si>
+    <t>4, 9, 14R</t>
+  </si>
+  <si>
+    <t>5, 10R, 15</t>
+  </si>
+  <si>
+    <t>GAAIS</t>
+  </si>
+  <si>
+    <t>AI attitudes</t>
+  </si>
+  <si>
+    <t>Positive GAAIS</t>
+  </si>
+  <si>
+    <t>Negative GAAIS</t>
+  </si>
+  <si>
+    <t>1+2+3+4</t>
+  </si>
+  <si>
+    <t>5+6+7+8</t>
+  </si>
+  <si>
+    <t>Botchatbot</t>
+  </si>
+  <si>
+    <t>Botmessages</t>
+  </si>
+  <si>
+    <t>Botq1</t>
+  </si>
+  <si>
+    <t>Botq2</t>
+  </si>
+  <si>
+    <t>Botq3</t>
+  </si>
+  <si>
+    <t>Botq4</t>
+  </si>
+  <si>
+    <t>which chatbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disagree Strongly </t>
+  </si>
+  <si>
+    <t>Critterbot</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Number of messages</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>Engaging</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Untrustworthy</t>
+  </si>
+  <si>
+    <t>Chatbot 0 Messages</t>
+  </si>
+  <si>
+    <t>Chatbot 1 Messages</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +403,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +688,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>4</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
+        <v>5</v>
+      </c>
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <v>5</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>5</v>
+      </c>
+      <c r="AL4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1658FCE-AC54-4DF0-8297-E202CA1A859E}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>-4+3+2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>4-2+4</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>-2-4+2</f>
+        <v>-4</v>
+      </c>
+      <c r="I2">
+        <f>2+2-4</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>5-1+5</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>4+4+5+4</f>
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <f>1+1+2+2</f>
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC02DE21-BB63-4BF7-87BD-87FCD5A29E59}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Study Results.xlsx
+++ b/Study Results.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\CS\2296038-final-year-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA53E1-3393-461B-9021-F2C1D21905ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956924C-7432-41A4-8D7B-51E3C83FFB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Processed Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Key" sheetId="4" r:id="rId3"/>
+    <sheet name="Processed Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Key" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -155,105 +150,126 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Eduction</t>
+  </si>
+  <si>
+    <t>Computer Expertise</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Negative Emotionality</t>
+  </si>
+  <si>
+    <t>Open-Mindedness</t>
+  </si>
+  <si>
+    <t>Positive GAAIS</t>
+  </si>
+  <si>
+    <t>Negative GAAIS</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>Engaging</t>
+  </si>
+  <si>
+    <t>Untrustworthy</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Rejected?</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Demographic 1</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Demographic 2</t>
+  </si>
+  <si>
     <t>21 and Under</t>
   </si>
   <si>
-    <t>Eduction</t>
-  </si>
-  <si>
-    <t>Computer Expertise</t>
+    <t>22 to 34</t>
+  </si>
+  <si>
+    <t>35 to 44</t>
+  </si>
+  <si>
+    <t>45 to 54</t>
+  </si>
+  <si>
+    <t>55 to 64</t>
+  </si>
+  <si>
+    <t>65 and Over</t>
+  </si>
+  <si>
+    <t>Demographic 3</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>No formal education</t>
+  </si>
+  <si>
+    <t>GCSE</t>
+  </si>
+  <si>
+    <t>A-level</t>
+  </si>
+  <si>
+    <t>Bachelors degree</t>
+  </si>
+  <si>
+    <t>Masters degree</t>
+  </si>
+  <si>
+    <t>Doctoral degree</t>
+  </si>
+  <si>
+    <t>Demographic 4</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Competent</t>
   </si>
   <si>
     <t>Skilled</t>
   </si>
   <si>
-    <t>Extraversion</t>
-  </si>
-  <si>
-    <t>Agreeableness</t>
-  </si>
-  <si>
-    <t>Conscientiousness</t>
-  </si>
-  <si>
-    <t>Negative Emotionality</t>
-  </si>
-  <si>
-    <t>Open-Mindedness</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Demographic 1</t>
-  </si>
-  <si>
-    <t>Demographic 2</t>
-  </si>
-  <si>
-    <t>Demographic 3</t>
-  </si>
-  <si>
-    <t>Demographic 4</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>22 to 34</t>
-  </si>
-  <si>
-    <t>35 to 44</t>
-  </si>
-  <si>
-    <t>45 to 54</t>
-  </si>
-  <si>
-    <t>55 to 64</t>
-  </si>
-  <si>
-    <t>65 and Over</t>
-  </si>
-  <si>
-    <t>No formal education</t>
-  </si>
-  <si>
-    <t>GCSE</t>
-  </si>
-  <si>
-    <t>A-level</t>
-  </si>
-  <si>
-    <t>Bachelors degree</t>
-  </si>
-  <si>
-    <t>Masters degree</t>
-  </si>
-  <si>
-    <t>Doctoral degree</t>
-  </si>
-  <si>
-    <t>Limited</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Competent</t>
-  </si>
-  <si>
     <t>Mastery</t>
   </si>
   <si>
@@ -263,48 +279,45 @@
     <t>Personality</t>
   </si>
   <si>
+    <t xml:space="preserve">Disagree Strongly </t>
+  </si>
+  <si>
+    <t>Disagree a little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral; no opinion </t>
+  </si>
+  <si>
+    <t>Agree a little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agree strongly </t>
+  </si>
+  <si>
+    <t>1R, 6, 11</t>
+  </si>
+  <si>
+    <t>2, 7R, 12</t>
+  </si>
+  <si>
+    <t>3R, 8R, 13</t>
+  </si>
+  <si>
+    <t>4, 9, 14R</t>
+  </si>
+  <si>
+    <t>5, 10R, 15</t>
+  </si>
+  <si>
+    <t>GAAIS</t>
+  </si>
+  <si>
+    <t>AI attitudes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disagree strongly </t>
   </si>
   <si>
-    <t>Disagree a little</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutral; no opinion </t>
-  </si>
-  <si>
-    <t>Agree a little</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agree strongly </t>
-  </si>
-  <si>
-    <t>1R, 6, 11</t>
-  </si>
-  <si>
-    <t>2, 7R, 12</t>
-  </si>
-  <si>
-    <t>3R, 8R, 13</t>
-  </si>
-  <si>
-    <t>4, 9, 14R</t>
-  </si>
-  <si>
-    <t>5, 10R, 15</t>
-  </si>
-  <si>
-    <t>GAAIS</t>
-  </si>
-  <si>
-    <t>AI attitudes</t>
-  </si>
-  <si>
-    <t>Positive GAAIS</t>
-  </si>
-  <si>
-    <t>Negative GAAIS</t>
-  </si>
-  <si>
     <t>1+2+3+4</t>
   </si>
   <si>
@@ -314,9 +327,15 @@
     <t>Botchatbot</t>
   </si>
   <si>
+    <t>which chatbot</t>
+  </si>
+  <si>
     <t>Botmessages</t>
   </si>
   <si>
+    <t>Number of messages</t>
+  </si>
+  <si>
     <t>Botq1</t>
   </si>
   <si>
@@ -329,37 +348,16 @@
     <t>Botq4</t>
   </si>
   <si>
-    <t>which chatbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disagree Strongly </t>
-  </si>
-  <si>
-    <t>Critterbot</t>
-  </si>
-  <si>
-    <t>Sage</t>
-  </si>
-  <si>
-    <t>Number of messages</t>
-  </si>
-  <si>
-    <t>Useful</t>
-  </si>
-  <si>
-    <t>Engaging</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Untrustworthy</t>
-  </si>
-  <si>
-    <t>Chatbot 0 Messages</t>
-  </si>
-  <si>
-    <t>Chatbot 1 Messages</t>
+    <t>Chatbot A Messages</t>
+  </si>
+  <si>
+    <t>Chatbot B Messages</t>
+  </si>
+  <si>
+    <t>Critterbot (A)</t>
+  </si>
+  <si>
+    <t>Sage (B)</t>
   </si>
 </sst>
 </file>
@@ -383,12 +381,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -403,12 +413,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2">
         <v>3</v>
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK2">
         <v>5</v>
@@ -1058,16 +1070,16 @@
         <v>4</v>
       </c>
       <c r="AE3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3">
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1210,7 +1222,1593 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>5</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>7</v>
+      </c>
+      <c r="AK7">
+        <v>4</v>
+      </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AM7">
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>5</v>
+      </c>
+      <c r="AK9">
+        <v>4</v>
+      </c>
+      <c r="AL9">
+        <v>4</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>5</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
+      <c r="AL10">
+        <v>4</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>4</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
+      </c>
+      <c r="AL11">
+        <v>4</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
+      </c>
+      <c r="AN11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>5</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
+        <v>4</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>4</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+      <c r="AF13">
+        <v>4</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>4</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>5</v>
+      </c>
+      <c r="AL13">
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AF14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>4</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>4</v>
+      </c>
+      <c r="AL14">
+        <v>5</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15">
+        <v>3</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>3</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>6</v>
+      </c>
+      <c r="AK16">
+        <v>5</v>
+      </c>
+      <c r="AL16">
+        <v>5</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>5</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>10</v>
+      </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <v>4</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1219,15 +2817,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1658FCE-AC54-4DF0-8297-E202CA1A859E}">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,11 +2841,12 @@
     <col min="11" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,64 +2857,67 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1331,35 +2934,28 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <f>-4+3+2</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f>4-2+4</f>
         <v>6</v>
       </c>
       <c r="H2">
-        <f>-2-4+2</f>
         <v>-4</v>
       </c>
       <c r="I2">
-        <f>2+2-4</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>5-1+5</f>
         <v>9</v>
       </c>
       <c r="K2">
-        <f>4+4+5+4</f>
         <v>17</v>
       </c>
       <c r="L2">
-        <f>1+1+2+2</f>
         <v>6</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -1374,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -1387,6 +2983,1074 @@
       </c>
       <c r="V2">
         <v>4</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>-4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>-5</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1395,18 +4059,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC02DE21-BB63-4BF7-87BD-87FCD5A29E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
@@ -1417,10 +4081,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -1446,312 +4110,312 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">

--- a/Study Results.xlsx
+++ b/Study Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\CS\2296038-final-year-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956924C-7432-41A4-8D7B-51E3C83FFB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5CCFA-EDC7-41BD-9DCF-255209BEF015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -381,24 +381,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -413,14 +401,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,25 +2794,994 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>6</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AF18">
+        <v>4</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>5</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>9</v>
+      </c>
+      <c r="AK18">
+        <v>5</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>4</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>4</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AK20">
+        <v>5</v>
+      </c>
+      <c r="AL20">
+        <v>4</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>8</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>4</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>5</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>7</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AL21">
+        <v>4</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
+      <c r="AF22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>4</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>10</v>
+      </c>
+      <c r="AK22">
+        <v>5</v>
+      </c>
+      <c r="AL22">
+        <v>5</v>
+      </c>
+      <c r="AM22">
+        <v>2</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>5</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>5</v>
+      </c>
+      <c r="AK23">
+        <v>4</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>6</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>5</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <v>5</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>5</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,1142 +3870,6 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>-4</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>17</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2">
-        <v>4</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>-2</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>4</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>4</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>-4</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>3</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>-5</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>16</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>14</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>-5</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10">
-        <v>10</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
-      </c>
-      <c r="V11">
-        <v>4</v>
-      </c>
-      <c r="W11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>14</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="U13">
-        <v>3</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>-5</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>16</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>5</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>-2</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>18</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>17</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>10</v>
-      </c>
-      <c r="S17">
-        <v>5</v>
-      </c>
-      <c r="T17">
-        <v>5</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
